--- a/02プロダクトバックログ/Scrum5_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum5_プロダクトバックログ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2E3C7B-A296-42F3-B920-E26C8C0BD60B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411D70B5-5316-4949-9AE1-F2C15DE7D39F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -85,16 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここに機能名を書く</t>
-    <rPh sb="3" eb="6">
-      <t>キノウメイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特記事項があればここに書く</t>
     <rPh sb="0" eb="2">
       <t>トッキ</t>
@@ -108,28 +98,281 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここに機能の概要を書く</t>
+    <t>Scrum5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生徒が教科書やノートを忘れた時にその画面を共有する事ができる機能。カレンダー機能のように時間割など確認ができる機能。自分で問題を作り復習ができる選択式ゲーム。ログイン機能を作り1人で使うこともできれば複数人で使う事ができるアプリを作ること。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習共有アプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ新規登録</t>
+    <rPh sb="3" eb="7">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題投稿</t>
+    <rPh sb="0" eb="4">
+      <t>カダイトウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ、パスワードでログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス、パスワード、ニックネーム、プロフィール詳細</t>
+    <rPh sb="27" eb="29">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
     <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日にちとコマ数を指定して課題を共有できる機能</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
       <t>キノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題返答</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベストアンサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返答者が投稿、解答、画像添付、アドバイス等</t>
+    <rPh sb="0" eb="3">
+      <t>ヘントウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>科目名選択、課題名、課題の内容、質問内容、画像添付、ポイント付与、課題の期日、解答期限</t>
+    <rPh sb="0" eb="3">
+      <t>カモクメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カダイメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>シツモンナイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キジツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン時に回答期限が来たら課題投稿者がベストアンサーを選ぶ</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カイトウキゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="19">
+      <t>カダイトウコウシャ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール表示</t>
     <rPh sb="6" eb="8">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Scrum5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生徒が教科書やノートを忘れた時にその画面を共有する事ができる機能。カレンダー機能のように時間割など確認ができる機能。自分で問題を作り復習ができる選択式ゲーム。ログイン機能を作り1人で使うこともできれば複数人で使う事ができるアプリを作ること。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学習共有アプリ</t>
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のプロフィール、保有ポイント、自分がかかわった課題の一覧などを表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホユウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能説明</t>
+    <rPh sb="0" eb="4">
+      <t>キノウセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー、投稿、閲覧、プロフィール、機能説明などがメニュー表示される</t>
+    <rPh sb="6" eb="8">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>キノウセツメイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このシステムの説明</t>
+    <rPh sb="7" eb="9">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閲覧</t>
+    <rPh sb="0" eb="2">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期表示は自分が投稿した課題の一覧。検索も可能。課題を検索して投稿内容を一覧表示。</t>
+    <rPh sb="0" eb="4">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>イチランヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -498,7 +741,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -513,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -521,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75">
@@ -529,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -543,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -575,99 +818,155 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="A3" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">

--- a/02プロダクトバックログ/Scrum5_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum5_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411D70B5-5316-4949-9AE1-F2C15DE7D39F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1394AF-25A3-47AF-ACAD-63F9A8943A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -372,6 +372,20 @@
     </rPh>
     <rPh sb="36" eb="40">
       <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2スクラム</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3スクラム</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -787,7 +801,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -862,7 +876,9 @@
       <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1">
@@ -877,7 +893,9 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1">
@@ -892,7 +910,9 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
@@ -907,7 +927,9 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1">
@@ -967,7 +989,9 @@
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="1"/>

--- a/02プロダクトバックログ/Scrum5_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum5_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1394AF-25A3-47AF-ACAD-63F9A8943A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483C923E-91E1-EF4B-AA9F-72D1F4BF9DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -387,6 +387,17 @@
     <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2スプリント</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -758,10 +769,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -781,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75">
+    <row r="3" spans="1:2" ht="80">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -798,23 +809,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -831,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:6" ht="40" customHeight="1">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -848,7 +859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:6" ht="40" customHeight="1">
       <c r="A3" s="1">
         <v>9</v>
       </c>
@@ -863,7 +874,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:6" ht="40" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -877,10 +888,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40" customHeight="1">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -896,8 +907,11 @@
       <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -913,8 +927,11 @@
       <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="40" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -931,7 +948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:6" ht="40" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -946,7 +963,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:6" ht="40" customHeight="1">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -961,7 +978,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:6" ht="40" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -976,7 +993,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:6" ht="40" customHeight="1">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -993,42 +1010,42 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:6" ht="40" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:6" ht="40" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:6" ht="40" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:6" ht="40" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:6" ht="40" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:5" ht="40" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
